--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEDD025-A186-0143-9030-D87440370413}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD506197-4C6C-FB4A-801E-5F399D415E56}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16020" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -514,7 +514,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>718</v>
+        <v>739</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -553,7 +553,7 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD506197-4C6C-FB4A-801E-5F399D415E56}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5563CE86-0BAB-4740-86B2-69D089AAEEC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -514,7 +514,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -564,7 +564,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5563CE86-0BAB-4740-86B2-69D089AAEEC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687DBBDD-E51A-9E40-BDC1-20F24D3EC0D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -514,7 +514,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>742</v>
+        <v>772</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -553,7 +553,7 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -564,7 +564,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687DBBDD-E51A-9E40-BDC1-20F24D3EC0D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B618BAC-6E44-B843-B374-F88F3270C36A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Books to read</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Total page count</t>
+  </si>
+  <si>
+    <t>The Passionate Programmer: Creating a Remarkable Career in Software Development</t>
+  </si>
+  <si>
+    <t>Chad Fowler</t>
   </si>
 </sst>
 </file>
@@ -458,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D9D6FD-C1AC-2947-87E8-CDC23DD828D6}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -514,7 +520,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>772</v>
+        <v>861</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -576,6 +582,17 @@
       </c>
       <c r="C12">
         <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B618BAC-6E44-B843-B374-F88F3270C36A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B22DF6-2336-1448-A50B-ED8A2E25838C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -520,7 +520,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>861</v>
+        <v>885</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -559,7 +559,7 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>122</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B22DF6-2336-1448-A50B-ED8A2E25838C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88D5E08-BCD4-894A-8B23-42FBC2601CA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -520,7 +520,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>885</v>
+        <v>888</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88D5E08-BCD4-894A-8B23-42FBC2601CA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C6A3CA-EFBC-3F41-95E5-1187F171EA7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -520,7 +520,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>888</v>
+        <v>936</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -559,7 +559,7 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>146</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C6A3CA-EFBC-3F41-95E5-1187F171EA7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8071D81D-BC6F-F54B-8430-E84CF17EFF33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -520,7 +520,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>936</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -592,7 +592,7 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>89</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8071D81D-BC6F-F54B-8430-E84CF17EFF33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0209055B-FFAE-1F4D-9B2F-458EEC2AF0D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -520,7 +520,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>980</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -559,7 +559,7 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>194</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -592,7 +592,7 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0209055B-FFAE-1F4D-9B2F-458EEC2AF0D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2B89F9-B829-F74D-A97E-869B622D7D55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -520,7 +520,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1031</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -559,7 +559,7 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>219</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2B89F9-B829-F74D-A97E-869B622D7D55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADA35A7-122E-974C-A0C1-2AB136FCCE3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -520,7 +520,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1049</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -592,7 +592,7 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>149</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADA35A7-122E-974C-A0C1-2AB136FCCE3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92783148-3242-E74E-895C-4855F492F4D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -520,7 +520,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1070</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92783148-3242-E74E-895C-4855F492F4D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9FFDB1-CDDC-BB46-B37E-21C2B5D33D6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Books to read</t>
   </si>
@@ -467,7 +467,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -520,7 +520,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1074</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -592,7 +592,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>170</v>
+        <v>198</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9FFDB1-CDDC-BB46-B37E-21C2B5D33D6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEFD69F-A3A8-FB4B-A8E1-C226ADFB0F6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Books to read</t>
   </si>
@@ -467,7 +467,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -520,7 +520,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1102</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -559,7 +559,10 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>237</v>
+        <v>306</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEFD69F-A3A8-FB4B-A8E1-C226ADFB0F6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D36B98-B750-474E-8C46-6C42932BD226}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Books to read</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Chad Fowler</t>
+  </si>
+  <si>
+    <t>The Spirit of Kaizen</t>
   </si>
 </sst>
 </file>
@@ -464,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D9D6FD-C1AC-2947-87E8-CDC23DD828D6}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -520,7 +523,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1171</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -599,6 +602,17 @@
       </c>
       <c r="D13" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D36B98-B750-474E-8C46-6C42932BD226}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7C5BC8-C2BB-2441-9ADE-CF2DBD6ABBF1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1188</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -612,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7C5BC8-C2BB-2441-9ADE-CF2DBD6ABBF1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7481A8-D9E8-3845-B5FB-C05664DF29DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1198</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -576,7 +576,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7481A8-D9E8-3845-B5FB-C05664DF29DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535F4906-5313-5F43-93B8-4B8CC0E9288A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1213</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -612,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535F4906-5313-5F43-93B8-4B8CC0E9288A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1EC290-8009-7C45-A867-FBB29F5F6482}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1216</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -576,7 +576,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1EC290-8009-7C45-A867-FBB29F5F6482}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A137A9-F086-5C4A-B30E-1B9D1441A158}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1218</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -612,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A137A9-F086-5C4A-B30E-1B9D1441A158}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534A2B1B-1769-504E-B63F-479C2FD6EA2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1224</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -576,7 +576,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534A2B1B-1769-504E-B63F-479C2FD6EA2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE1BA64-B8BE-B543-AA70-33AC7CA6EE90}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1227</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -612,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE1BA64-B8BE-B543-AA70-33AC7CA6EE90}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BBE68B-E234-8B49-940B-E554AA86B056}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1230</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -576,7 +576,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BBE68B-E234-8B49-940B-E554AA86B056}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4032FB-B335-1742-9DE0-6031B7A04CD5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1232</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -612,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4032FB-B335-1742-9DE0-6031B7A04CD5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E48CC9-9085-1941-90CC-DA511562F107}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15900" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1237</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -576,7 +576,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -612,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E48CC9-9085-1941-90CC-DA511562F107}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A68C1AD-601C-1648-9DF9-91C87223F3AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1252</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -612,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A68C1AD-601C-1648-9DF9-91C87223F3AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F5B9BB-0F1F-5A44-B0B1-6B3F059A3FB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1257</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -576,7 +576,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F5B9BB-0F1F-5A44-B0B1-6B3F059A3FB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157385D8-461C-4843-8565-72850739ECAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1260</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -612,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157385D8-461C-4843-8565-72850739ECAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04FD672-1954-CF4F-AA46-F38AF5B2AB0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1265</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -576,7 +576,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04FD672-1954-CF4F-AA46-F38AF5B2AB0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A10418B-FF24-9F4A-8A66-7CCD917E9103}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1268</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -576,7 +576,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -612,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A10418B-FF24-9F4A-8A66-7CCD917E9103}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780CF43F-07EE-474A-A246-A00E610D3C00}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Books to read</t>
   </si>
@@ -470,7 +470,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1276</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -612,7 +612,10 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>67</v>
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780CF43F-07EE-474A-A246-A00E610D3C00}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B752755-9D94-7048-8C4A-67160BF72D49}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1291</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -612,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B752755-9D94-7048-8C4A-67160BF72D49}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B365FE7C-FF0A-EB45-8DC7-5AF9755FAC67}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1373</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -576,7 +576,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B365FE7C-FF0A-EB45-8DC7-5AF9755FAC67}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E2983C-18F6-244D-93F0-62D2A28F3C2C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Books to read</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>The Spirit of Kaizen</t>
+  </si>
+  <si>
+    <t>Calculus Made Easy</t>
+  </si>
+  <si>
+    <t>Silvanus Thompson</t>
   </si>
 </sst>
 </file>
@@ -467,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D9D6FD-C1AC-2947-87E8-CDC23DD828D6}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -523,7 +529,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1379</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -616,6 +622,17 @@
       </c>
       <c r="D14" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E2983C-18F6-244D-93F0-62D2A28F3C2C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6F49FC-AC9D-2F4A-A444-FB1288B4C929}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -529,7 +529,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1413</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -632,7 +632,7 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6F49FC-AC9D-2F4A-A444-FB1288B4C929}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B522B782-9B5B-F845-BE80-C6ADE8DF6C4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -529,7 +529,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1431</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -582,7 +582,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B522B782-9B5B-F845-BE80-C6ADE8DF6C4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B6B51F-FFCE-F64C-9F48-BA37AEF85891}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -529,7 +529,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1433</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -632,7 +632,7 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B6B51F-FFCE-F64C-9F48-BA37AEF85891}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17804FB-DF86-1043-A64D-0A7CE62DE528}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -529,7 +529,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1456</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -632,7 +632,7 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17804FB-DF86-1043-A64D-0A7CE62DE528}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7562EE2-D509-844C-B278-CFE304806DAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -529,7 +529,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1472</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -632,7 +632,7 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7562EE2-D509-844C-B278-CFE304806DAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA34B22-B7FC-AE4F-96FF-4F970051A619}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -529,7 +529,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1490</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -632,7 +632,7 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA34B22-B7FC-AE4F-96FF-4F970051A619}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3292B5-4CB1-D547-8A97-86C5692B4AA7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -529,7 +529,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1500</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -632,7 +632,7 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3292B5-4CB1-D547-8A97-86C5692B4AA7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D615D1-92D8-BB42-9C57-8342DCDD6A84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -529,7 +529,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1512</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -632,7 +632,7 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D615D1-92D8-BB42-9C57-8342DCDD6A84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EDF501-87FE-574D-BF08-9ADFE5832C98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -529,7 +529,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1533</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -632,7 +632,7 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EDF501-87FE-574D-BF08-9ADFE5832C98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094973B7-D37C-F64A-B4E0-62CA3F5B1107}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -529,7 +529,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1553</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -582,7 +582,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -632,7 +632,7 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094973B7-D37C-F64A-B4E0-62CA3F5B1107}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB4EFA2-04E3-C348-92E8-647D123ABF12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -529,7 +529,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1574</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -582,7 +582,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -632,7 +632,7 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <v>189</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB4EFA2-04E3-C348-92E8-647D123ABF12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99874D7-D43B-A543-801F-7BFA2C2BCF35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Books to read</t>
   </si>
@@ -476,7 +476,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -529,7 +529,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1592</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -632,7 +632,10 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <v>204</v>
+        <v>248</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99874D7-D43B-A543-801F-7BFA2C2BCF35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A149FA2-3EF1-334D-894A-5463CBD7F01C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -529,7 +529,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1636</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -582,7 +582,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A149FA2-3EF1-334D-894A-5463CBD7F01C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4815407C-08F9-4E4F-92EE-67E22E76DECD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Books to read</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Silvanus Thompson</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence: Foundations of Computational Agents (2nd Edition)</t>
+  </si>
+  <si>
+    <t>David L. Poole and Alan K. Mackworth</t>
   </si>
 </sst>
 </file>
@@ -473,16 +479,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D9D6FD-C1AC-2947-87E8-CDC23DD828D6}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="90" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
     <col min="3" max="3" width="22.1640625" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
   </cols>
@@ -529,7 +535,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1639</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -582,7 +588,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -636,6 +642,14 @@
       </c>
       <c r="D15" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4815407C-08F9-4E4F-92EE-67E22E76DECD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3254914E-E385-D641-AB0C-A018281EA353}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1644</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -599,7 +599,7 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3254914E-E385-D641-AB0C-A018281EA353}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA0512D-728C-D348-A221-CE7E06B23C8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1622</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -650,6 +650,9 @@
       </c>
       <c r="B16" t="s">
         <v>26</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA0512D-728C-D348-A221-CE7E06B23C8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825B6D8B-E4A0-C84C-B67B-582299C64C50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -599,7 +599,7 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825B6D8B-E4A0-C84C-B67B-582299C64C50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FFB1B2-12D0-B149-829F-D9FC1A77EDB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Books to read</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>David L. Poole and Alan K. Mackworth</t>
+  </si>
+  <si>
+    <t>Make your own Neural Network / Neuronale Netze selbst programmieren</t>
+  </si>
+  <si>
+    <t>Tariq Rashid</t>
   </si>
 </sst>
 </file>
@@ -479,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D9D6FD-C1AC-2947-87E8-CDC23DD828D6}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -535,7 +541,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1631</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -652,6 +658,20 @@
         <v>26</v>
       </c>
       <c r="C16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>211</v>
+      </c>
+      <c r="D17" t="s">
         <v>8</v>
       </c>
     </row>

--- a/PageCountSummary.xlsx
+++ b/PageCountSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cschmidl/Study/books-to-read/repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FFB1B2-12D0-B149-829F-D9FC1A77EDB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F34E4C8-72E8-8747-8A14-D478694CD8A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15880" xr2:uid="{6B0161F9-090C-9042-81A3-43F466117C6E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Books to read</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Tariq Rashid</t>
+  </si>
+  <si>
+    <t>Operating System Concepts</t>
+  </si>
+  <si>
+    <t>Abraham Silberschatz et al</t>
   </si>
 </sst>
 </file>
@@ -485,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D9D6FD-C1AC-2947-87E8-CDC23DD828D6}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -541,7 +547,7 @@
       </c>
       <c r="E7">
         <f>SUM(C7:C35)</f>
-        <v>1842</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -673,6 +679,17 @@
       </c>
       <c r="D17" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
